--- a/cui-color-palletes.xlsx
+++ b/cui-color-palletes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barto\Documents\Development\bpd_dev\cui-styles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C2B135-A488-41A5-A1D1-BCFD43DC53A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13586DA8-4685-471E-A989-454D444335CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17820" yWindow="2377" windowWidth="17280" windowHeight="13830" xr2:uid="{4AF1B8F5-3263-4F60-A9E2-55617F890194}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="15389" windowHeight="9532" xr2:uid="{4AF1B8F5-3263-4F60-A9E2-55617F890194}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
   <si>
     <t>Colors</t>
   </si>
@@ -205,6 +205,84 @@
   </si>
   <si>
     <t>#233646</t>
+  </si>
+  <si>
+    <t>#3178ce</t>
+  </si>
+  <si>
+    <t>#225391</t>
+  </si>
+  <si>
+    <t>#669ddb</t>
+  </si>
+  <si>
+    <t>#E6EFF9</t>
+  </si>
+  <si>
+    <t>#3d83d1</t>
+  </si>
+  <si>
+    <t>#255d9d</t>
+  </si>
+  <si>
+    <t>#73a8de</t>
+  </si>
+  <si>
+    <t>#252D37</t>
+  </si>
+  <si>
+    <t>#dd50bd</t>
+  </si>
+  <si>
+    <t>#bb2598</t>
+  </si>
+  <si>
+    <t>#ea85d4</t>
+  </si>
+  <si>
+    <t>#FBEAF7</t>
+  </si>
+  <si>
+    <t>#e05cc3</t>
+  </si>
+  <si>
+    <t>#c828a3</t>
+  </si>
+  <si>
+    <t>#ed92d8</t>
+  </si>
+  <si>
+    <t>#382935</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>#b340d9</t>
+  </si>
+  <si>
+    <t>#8822aa</t>
+  </si>
+  <si>
+    <t>#c977e4</t>
+  </si>
+  <si>
+    <t>#F6E8FB</t>
+  </si>
+  <si>
+    <t>#b748db</t>
+  </si>
+  <si>
+    <t>#9023b3</t>
+  </si>
+  <si>
+    <t>#cd7fe6</t>
+  </si>
+  <si>
+    <t>#342638</t>
   </si>
 </sst>
 </file>
@@ -585,30 +663,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E35E93-562C-47E4-8ACD-4D4C382325BF}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -618,8 +699,11 @@
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -629,8 +713,11 @@
       <c r="C6" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -640,8 +727,11 @@
       <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -651,13 +741,16 @@
       <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -667,8 +760,11 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -678,8 +774,11 @@
       <c r="C13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -689,8 +788,11 @@
       <c r="C14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -700,87 +802,141 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -788,7 +944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -796,7 +952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -804,7 +960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -812,12 +968,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -825,7 +981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -833,7 +989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -841,7 +997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -849,12 +1005,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -862,7 +1018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -870,7 +1026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -878,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -886,12 +1042,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -899,7 +1055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -907,7 +1063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -915,7 +1071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -923,12 +1079,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -936,7 +1092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -944,7 +1100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -952,7 +1108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -960,12 +1116,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -973,7 +1129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -981,7 +1137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -989,7 +1145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>5</v>
       </c>
